--- a/SE/Project 3/Process Checklist.xlsx
+++ b/SE/Project 3/Process Checklist.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gstroe\Documents\School\SE\Project 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="2964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="2970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -108,6 +103,24 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Code Functional Unit 4</t>
+  </si>
+  <si>
+    <t>Test Functional Unit 4</t>
+  </si>
+  <si>
+    <t>Write Coding and Testing process for Functional Unit 4 in the report.</t>
+  </si>
+  <si>
+    <t>Code Functional Unit 5</t>
+  </si>
+  <si>
+    <t>Test Functional Unit 5</t>
+  </si>
+  <si>
+    <t>Write Coding and Testing process for Functional Unit 5 in the report.</t>
   </si>
 </sst>
 </file>
@@ -206,7 +219,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -495,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,20 +576,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -527,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -538,7 +611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -549,7 +622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -560,7 +633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -571,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -582,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -590,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -601,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -612,10 +685,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -623,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -634,10 +707,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -645,10 +718,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -656,10 +729,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -667,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -678,10 +751,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -689,10 +762,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -700,10 +773,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -711,10 +784,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -722,66 +795,140 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C21 C25:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
